--- a/data/trans_dic/P19C09-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P19C09-Dificultad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01918537205240854</v>
+        <v>0.01918660667770118</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.004768492120465623</v>
+        <v>0.004078205917522544</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01963397981806247</v>
+        <v>0.01906294628186857</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01838964889289511</v>
+        <v>0.01975092979204308</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02108138464034143</v>
+        <v>0.02149594842458513</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01886171425355436</v>
+        <v>0.01935544707360172</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02197537842265697</v>
+        <v>0.02146067681767045</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.01547746721361262</v>
+        <v>0.01511728215888856</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02156433864799859</v>
+        <v>0.02131832335440627</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05884118394276939</v>
+        <v>0.06168157269666503</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01827064916658683</v>
+        <v>0.01923679192902057</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.04649799794682327</v>
+        <v>0.04426837338639354</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04349042812267755</v>
+        <v>0.04528315903031794</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04656029734746252</v>
+        <v>0.04809237562352184</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03999203397313591</v>
+        <v>0.04112711231235835</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.0436286743252423</v>
+        <v>0.04359234643270143</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.03079442735466827</v>
+        <v>0.03010317718678937</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.03827887831206932</v>
+        <v>0.03900794785504202</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01133120953079786</v>
+        <v>0.01122718708609392</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01235710054270048</v>
+        <v>0.01182198869185468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01774661202369055</v>
+        <v>0.01888352008112227</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01222920898280595</v>
+        <v>0.0126386214011303</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0122819173811466</v>
+        <v>0.01350991024461005</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01821835198689263</v>
+        <v>0.01929579956595402</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01427671771548453</v>
+        <v>0.0137898169056778</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.01452943760844453</v>
+        <v>0.01447180152426208</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02184936740950289</v>
+        <v>0.02191466899279888</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03047013687644363</v>
+        <v>0.03179002464322302</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.03496112464928965</v>
+        <v>0.03204647682323618</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04214820802586036</v>
+        <v>0.04591053916178277</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.03201285210567947</v>
+        <v>0.03159662913182597</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0335399567643932</v>
+        <v>0.03348001864902676</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04359501008142598</v>
+        <v>0.0441635135954757</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02778790549526559</v>
+        <v>0.02701531923210367</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.02863551550195996</v>
+        <v>0.02894006310835561</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03982058739876138</v>
+        <v>0.03963462632248076</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01191035658125067</v>
+        <v>0.01164323043422472</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01191744071518557</v>
+        <v>0.01191825143821809</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.01527272645384351</v>
+        <v>0.01372541597771444</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.02761499883990734</v>
+        <v>0.02690679633122152</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02111877248679615</v>
+        <v>0.02143065345052479</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.007699415231688907</v>
+        <v>0.007127765047422494</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02150711056455286</v>
+        <v>0.02136750349197953</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.01892663914860577</v>
+        <v>0.01878505914022792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01358257840703851</v>
+        <v>0.01327491670312687</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03185424132904051</v>
+        <v>0.03100481033818462</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.03585690262178796</v>
+        <v>0.0362959440782764</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.03910278535480029</v>
+        <v>0.03792587315509947</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.05466090346792698</v>
+        <v>0.05372418702882636</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04693284060558408</v>
+        <v>0.04589004181872662</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03104357474860257</v>
+        <v>0.02661392335529262</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03796816415709262</v>
+        <v>0.03797792563820884</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03584869771439012</v>
+        <v>0.03582265477623659</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02898247514035255</v>
+        <v>0.02887492972264546</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02647459235341154</v>
+        <v>0.02506442327938133</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.006686273356360816</v>
+        <v>0.006832386132064366</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01688067506685209</v>
+        <v>0.01707616878343066</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.02024332580502568</v>
+        <v>0.0225099360067223</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01262234217098453</v>
+        <v>0.01437706331033694</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01913855738716265</v>
+        <v>0.02004293391055518</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02759426314998972</v>
+        <v>0.02673524085543979</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01276444948395839</v>
+        <v>0.0134112721235538</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02172945717295977</v>
+        <v>0.02215128292177653</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.07415949966621807</v>
+        <v>0.07265568216748342</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03416291463396134</v>
+        <v>0.03610121883059111</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.0553348202417685</v>
+        <v>0.05556953176124486</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.0708024108574969</v>
+        <v>0.07287335260185464</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05209262150649129</v>
+        <v>0.04935772275115257</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.05626415724380075</v>
+        <v>0.06135526835280764</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06270747927547907</v>
+        <v>0.06241431489763488</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.03376643190251301</v>
+        <v>0.03618987983996508</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04872266660106866</v>
+        <v>0.04729624570673412</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01950742020465923</v>
+        <v>0.01926759946378458</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0127113507990726</v>
+        <v>0.01299178551809678</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02273996480461873</v>
+        <v>0.0226855181931046</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.02506564634727584</v>
+        <v>0.02448238374305743</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02188470630865084</v>
+        <v>0.02267590095800399</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02083375660119853</v>
+        <v>0.02087308595780751</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02388711003634808</v>
+        <v>0.02405814098434459</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.01922511887274318</v>
+        <v>0.01933766767039314</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02337850897248928</v>
+        <v>0.02323029085881958</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03297595386531972</v>
+        <v>0.03238200331185576</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02300311506019884</v>
+        <v>0.02314314687932649</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.03581578251111361</v>
+        <v>0.03573293922852402</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03811153530042077</v>
+        <v>0.03745685451127584</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03425820561666069</v>
+        <v>0.0356959116585415</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.03352369348631837</v>
+        <v>0.03369437944979668</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03347068562498944</v>
+        <v>0.03343152153114975</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02704959996532334</v>
+        <v>0.02737779287765753</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03273740690737555</v>
+        <v>0.03214027391428937</v>
       </c>
     </row>
     <row r="19">
@@ -1402,28 +1402,28 @@
         <v>7563</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>3866</v>
+        <v>3307</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>15400</v>
+        <v>14952</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>13405</v>
+        <v>14398</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>19377</v>
+        <v>19758</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>17404</v>
+        <v>17860</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>24682</v>
+        <v>24104</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>26775</v>
+        <v>26152</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>36812</v>
+        <v>36392</v>
       </c>
     </row>
     <row r="7">
@@ -1434,31 +1434,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>23194</v>
+        <v>24314</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>14814</v>
+        <v>15597</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>36471</v>
+        <v>34722</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>31703</v>
+        <v>33010</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42795</v>
+        <v>44203</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>36901</v>
+        <v>37949</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>49001</v>
+        <v>48961</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>53272</v>
+        <v>52076</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>65345</v>
+        <v>66590</v>
       </c>
     </row>
     <row r="8">
@@ -1543,31 +1543,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>9038</v>
+        <v>8955</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>10082</v>
+        <v>9645</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>12677</v>
+        <v>13489</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10394</v>
+        <v>10742</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>11516</v>
+        <v>12667</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>15352</v>
+        <v>16260</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>23522</v>
+        <v>22720</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25477</v>
+        <v>25376</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>34019</v>
+        <v>34121</v>
       </c>
     </row>
     <row r="11">
@@ -1578,31 +1578,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>24304</v>
+        <v>25357</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>28524</v>
+        <v>26146</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>30107</v>
+        <v>32795</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>27209</v>
+        <v>26855</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31448</v>
+        <v>31392</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>36737</v>
+        <v>37216</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>45783</v>
+        <v>44510</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>50212</v>
+        <v>50746</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>62001</v>
+        <v>61711</v>
       </c>
     </row>
     <row r="12">
@@ -1687,31 +1687,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>10606</v>
+        <v>10368</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>9013</v>
+        <v>9014</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>10937</v>
+        <v>9829</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>22882</v>
+        <v>22295</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>16792</v>
+        <v>17040</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5074</v>
+        <v>4697</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>36973</v>
+        <v>36733</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>29363</v>
+        <v>29144</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18677</v>
+        <v>18254</v>
       </c>
     </row>
     <row r="15">
@@ -1722,31 +1722,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>28366</v>
+        <v>27610</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>27118</v>
+        <v>27450</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28001</v>
+        <v>27158</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>45292</v>
+        <v>44516</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37318</v>
+        <v>36489</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>20457</v>
+        <v>17538</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>65271</v>
+        <v>65288</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>55617</v>
+        <v>55577</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39853</v>
+        <v>39705</v>
       </c>
     </row>
     <row r="16">
@@ -1831,31 +1831,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9000</v>
+        <v>8521</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2937</v>
+        <v>3001</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7255</v>
+        <v>7339</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5620</v>
+        <v>6249</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>5096</v>
+        <v>5805</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>8255</v>
+        <v>8646</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>17041</v>
+        <v>16511</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>10760</v>
+        <v>11306</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>18711</v>
+        <v>19075</v>
       </c>
     </row>
     <row r="19">
@@ -1866,31 +1866,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25211</v>
+        <v>24700</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>15006</v>
+        <v>15857</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>23780</v>
+        <v>23881</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>19655</v>
+        <v>20230</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>21032</v>
+        <v>19928</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>24270</v>
+        <v>26466</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>38726</v>
+        <v>38545</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>28465</v>
+        <v>30508</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>41955</v>
+        <v>40727</v>
       </c>
     </row>
     <row r="20">
@@ -1975,31 +1975,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>47253</v>
+        <v>46672</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>35874</v>
+        <v>36665</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>60136</v>
+        <v>59992</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>67304</v>
+        <v>65738</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>66872</v>
+        <v>69290</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>59495</v>
+        <v>59608</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>122001</v>
+        <v>122875</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>113002</v>
+        <v>113664</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>128587</v>
+        <v>127772</v>
       </c>
     </row>
     <row r="23">
@@ -2010,31 +2010,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>79877</v>
+        <v>78439</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>64919</v>
+        <v>65315</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>94716</v>
+        <v>94497</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>102334</v>
+        <v>100576</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>104681</v>
+        <v>109074</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>95734</v>
+        <v>96222</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>170948</v>
+        <v>170748</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>158994</v>
+        <v>160923</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>180064</v>
+        <v>176779</v>
       </c>
     </row>
     <row r="24">
